--- a/team_names.xlsx
+++ b/team_names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Jupyter Notebooks\outrights-pred\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2121F59C-20A1-4566-B092-60C2A70E4E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DDE802-FF1A-4661-AFA8-78BBF0372DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E8923C20-21F3-4AD3-838F-6F52948EFF21}"/>
+    <workbookView xWindow="945" yWindow="1350" windowWidth="24135" windowHeight="14130" xr2:uid="{E8923C20-21F3-4AD3-838F-6F52948EFF21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="116">
   <si>
     <t>Country_code</t>
   </si>
@@ -147,19 +147,263 @@
   </si>
   <si>
     <t>ŁKS Łódź</t>
+  </si>
+  <si>
+    <t>Bodoe Glimt</t>
+  </si>
+  <si>
+    <t>Brann</t>
+  </si>
+  <si>
+    <t>Fredrikstad</t>
+  </si>
+  <si>
+    <t>Ham-Kam</t>
+  </si>
+  <si>
+    <t>Haugesund</t>
+  </si>
+  <si>
+    <t>KFUM Oslo</t>
+  </si>
+  <si>
+    <t>Kristiansund</t>
+  </si>
+  <si>
+    <t>Lillestrom</t>
+  </si>
+  <si>
+    <t>Molde</t>
+  </si>
+  <si>
+    <t>Odd Grenland</t>
+  </si>
+  <si>
+    <t>Rosenborg</t>
+  </si>
+  <si>
+    <t>Sandefjord</t>
+  </si>
+  <si>
+    <t>Sarpsborg</t>
+  </si>
+  <si>
+    <t>Stromsgodset</t>
+  </si>
+  <si>
+    <t>Tromso</t>
+  </si>
+  <si>
+    <t>Viking</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Bodo/Glimt</t>
+  </si>
+  <si>
+    <t>Kristiansund BK</t>
+  </si>
+  <si>
+    <t>ODD Ballklubb</t>
+  </si>
+  <si>
+    <t>Sarpsborg 08 FF</t>
+  </si>
+  <si>
+    <t>AIK</t>
+  </si>
+  <si>
+    <t>Brommapojkarna</t>
+  </si>
+  <si>
+    <t>Djurgarden</t>
+  </si>
+  <si>
+    <t>Elfsborg</t>
+  </si>
+  <si>
+    <t>GAIS</t>
+  </si>
+  <si>
+    <t>Goeteborg</t>
+  </si>
+  <si>
+    <t>Haecken</t>
+  </si>
+  <si>
+    <t>Halmstad</t>
+  </si>
+  <si>
+    <t>Hammarby</t>
+  </si>
+  <si>
+    <t>IK Sirius</t>
+  </si>
+  <si>
+    <t>Kalmar</t>
+  </si>
+  <si>
+    <t>Malmoe</t>
+  </si>
+  <si>
+    <t>Mjaellby</t>
+  </si>
+  <si>
+    <t>Norrkoeping</t>
+  </si>
+  <si>
+    <t>Vaesteras</t>
+  </si>
+  <si>
+    <t>Varnamo</t>
+  </si>
+  <si>
+    <t>AIK stockholm</t>
+  </si>
+  <si>
+    <t>BK Hacken</t>
+  </si>
+  <si>
+    <t>Djurgardens IF</t>
+  </si>
+  <si>
+    <t>Gais</t>
+  </si>
+  <si>
+    <t>Hammarby FF</t>
+  </si>
+  <si>
+    <t>IF Brommapojkarna</t>
+  </si>
+  <si>
+    <t>IF elfsborg</t>
+  </si>
+  <si>
+    <t>IFK Goteborg</t>
+  </si>
+  <si>
+    <t>IFK Norrkoping</t>
+  </si>
+  <si>
+    <t>IFK Varnamo</t>
+  </si>
+  <si>
+    <t>Malmo FF</t>
+  </si>
+  <si>
+    <t>Mjallby AIF</t>
+  </si>
+  <si>
+    <t>Sirius</t>
+  </si>
+  <si>
+    <t>Vasteras SK FK</t>
+  </si>
+  <si>
+    <t>kalmar FF</t>
+  </si>
+  <si>
+    <t>Opta_name</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>Atletico Goianiense</t>
+  </si>
+  <si>
+    <t>Atletico Paranaense</t>
+  </si>
+  <si>
+    <t>Atletico-MG</t>
+  </si>
+  <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>Botafogo</t>
+  </si>
+  <si>
+    <t>Corinthians</t>
+  </si>
+  <si>
+    <t>Criciuma</t>
+  </si>
+  <si>
+    <t>Cruzeiro</t>
+  </si>
+  <si>
+    <t>Cuiaba</t>
+  </si>
+  <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
+    <t>Fluminense</t>
+  </si>
+  <si>
+    <t>Fortaleza EC</t>
+  </si>
+  <si>
+    <t>Gremio</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Juventude</t>
+  </si>
+  <si>
+    <t>Palmeiras</t>
+  </si>
+  <si>
+    <t>RB Bragantino</t>
+  </si>
+  <si>
+    <t>Sao Paulo</t>
+  </si>
+  <si>
+    <t>Vasco DA Gama</t>
+  </si>
+  <si>
+    <t>Vitoria</t>
+  </si>
+  <si>
+    <t>Atletico Mineiro</t>
+  </si>
+  <si>
+    <t>Athletico Paranaense</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
+  </si>
+  <si>
+    <t>Vasco da Gama</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -180,17 +424,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{B6A30C03-A959-41F5-A419-C1BF8D24B6FA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -522,18 +769,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067AC6B2-2674-41AF-A659-74CD0002F204}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,8 +790,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -555,7 +805,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -566,7 +816,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -577,7 +827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -588,7 +838,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -599,7 +849,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -610,7 +860,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -621,7 +871,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -632,7 +882,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -643,7 +893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -654,7 +904,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -665,7 +915,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -676,7 +926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -687,7 +937,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -698,7 +948,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -709,7 +959,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -720,7 +970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -731,7 +981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -740,6 +990,578 @@
       </c>
       <c r="C19" s="1" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" t="s">
+        <v>104</v>
+      </c>
+      <c r="D64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" t="s">
+        <v>106</v>
+      </c>
+      <c r="D66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" t="s">
+        <v>108</v>
+      </c>
+      <c r="D68" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" t="s">
+        <v>109</v>
+      </c>
+      <c r="D69" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" t="s">
+        <v>110</v>
+      </c>
+      <c r="D70" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
